--- a/TXT/Reprise_données_Utilisateurs/reprise_de_données-Service.xlsx
+++ b/TXT/Reprise_données_Utilisateurs/reprise_de_données-Service.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\TXT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Utilisateurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF86F7A-1CA0-4B22-A0FB-41C720DEA086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CEA7E-3E8E-4903-9A97-5D9C4B11A587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="975" windowWidth="20055" windowHeight="13995" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Service" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>BD source (Access)</t>
   </si>
@@ -63,35 +62,116 @@
     <t>IdService (numérique)</t>
   </si>
   <si>
-    <t>C_SER (varchar 3)</t>
-  </si>
-  <si>
-    <t>Z_SER (varchar 30)</t>
-  </si>
-  <si>
-    <t>c_libelle</t>
-  </si>
-  <si>
-    <t>s_libelle</t>
-  </si>
-  <si>
-    <t>Recup</t>
-  </si>
-  <si>
-    <t>Récup</t>
-  </si>
-  <si>
     <t>Nouvelle colonne == C'est une clé séquence</t>
   </si>
   <si>
     <t>non renseigné</t>
+  </si>
+  <si>
+    <t>C_SER (text court (30) )</t>
+  </si>
+  <si>
+    <t>Z_SER (text court (30) )</t>
+  </si>
+  <si>
+    <t>Récupe sans transformation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">codeService  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">libService  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +206,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -577,7 +664,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,16 +726,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,16 +743,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -676,16 +763,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>